--- a/docs/StructureDefinition-hyperbaric-chamber.xlsx
+++ b/docs/StructureDefinition-hyperbaric-chamber.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-01T22:56:50-05:00</t>
+    <t>2025-06-01T23:37:11-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-hyperbaric-chamber.xlsx
+++ b/docs/StructureDefinition-hyperbaric-chamber.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.2</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-01T23:37:11-05:00</t>
+    <t>2025-12-25T11:43:35-07:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -352,7 +352,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -926,7 +926,7 @@
     <t>Physical form of the location.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/location-physical-type</t>
+    <t>http://hl7.org/fhir/ValueSet/location-physical-type|4.0.1</t>
   </si>
   <si>
     <t>.playingEntity [classCode=PLC].code</t>
@@ -1050,7 +1050,7 @@
     <t>Location.managingOrganization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1072,7 +1072,7 @@
     <t>Location.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1171,7 +1171,7 @@
     <t>Location.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Endpoint)
+    <t xml:space="preserve">Reference(Endpoint|4.0.1)
 </t>
   </si>
   <si>
@@ -2521,7 +2521,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>135</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>141</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>146</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>151</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>170</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>178</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>185</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>196</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>209</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
         <v>287</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
         <v>332</v>
       </c>
@@ -7491,7 +7491,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
         <v>339</v>
       </c>
@@ -8671,12 +8671,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AL66">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/docs/StructureDefinition-hyperbaric-chamber.xlsx
+++ b/docs/StructureDefinition-hyperbaric-chamber.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0</t>
+    <t>0.5.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-25T11:43:35-07:00</t>
+    <t>2025-12-29T13:16:13-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-hyperbaric-chamber.xlsx
+++ b/docs/StructureDefinition-hyperbaric-chamber.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.1</t>
+    <t>0.5.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T13:16:13-07:00</t>
+    <t>2025-12-29T20:17:52-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-hyperbaric-chamber.xlsx
+++ b/docs/StructureDefinition-hyperbaric-chamber.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.2</t>
+    <t>0.5.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T20:17:52-07:00</t>
+    <t>2025-12-29T22:23:37-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-hyperbaric-chamber.xlsx
+++ b/docs/StructureDefinition-hyperbaric-chamber.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.3</t>
+    <t>0.5.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T22:23:37-07:00</t>
+    <t>2025-12-29T23:18:22-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-hyperbaric-chamber.xlsx
+++ b/docs/StructureDefinition-hyperbaric-chamber.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.4</t>
+    <t>0.5.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T23:18:22-07:00</t>
+    <t>2025-12-30T00:07:25-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-hyperbaric-chamber.xlsx
+++ b/docs/StructureDefinition-hyperbaric-chamber.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-30T13:15:27-07:00</t>
+    <t>2025-12-30T19:11:20-07:00</t>
   </si>
   <si>
     <t>Publisher</t>
